--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44291</v>
+        <v>44421</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O2" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="P2" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44421</v>
+        <v>44291</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="O3" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="P3" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44421</v>
+        <v>44291</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N2" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="O2" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="P2" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44291</v>
+        <v>44421</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="P3" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
